--- a/sequences/15_retrieval_2.xlsx
+++ b/sequences/15_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -2032,6 +2032,30 @@
       <c r="F6" t="s">
         <v>209</v>
       </c>
+      <c r="G6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2052,6 +2076,30 @@
       <c r="F7" t="s">
         <v>209</v>
       </c>
+      <c r="G7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" t="s">
+        <v>209</v>
+      </c>
+      <c r="N7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2116,6 +2164,30 @@
       <c r="F9" t="s">
         <v>209</v>
       </c>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2136,6 +2208,30 @@
       <c r="F10" t="s">
         <v>209</v>
       </c>
+      <c r="G10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2420,6 +2516,30 @@
       <c r="F17" t="s">
         <v>209</v>
       </c>
+      <c r="G17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N17" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2528,6 +2648,30 @@
       <c r="F20" t="s">
         <v>209</v>
       </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2724,6 +2868,30 @@
       <c r="F25" t="s">
         <v>209</v>
       </c>
+      <c r="G25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="s">
+        <v>209</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2744,6 +2912,30 @@
       <c r="F26" t="s">
         <v>209</v>
       </c>
+      <c r="G26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="s">
+        <v>209</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2852,6 +3044,30 @@
       <c r="F29" t="s">
         <v>209</v>
       </c>
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="s">
+        <v>209</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -2916,6 +3132,30 @@
       <c r="F31" t="s">
         <v>209</v>
       </c>
+      <c r="G31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" t="s">
+        <v>209</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -3024,6 +3264,30 @@
       <c r="F34" t="s">
         <v>209</v>
       </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>209</v>
+      </c>
+      <c r="L34" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" t="s">
+        <v>209</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3220,6 +3484,30 @@
       <c r="F39" t="s">
         <v>209</v>
       </c>
+      <c r="G39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" t="s">
+        <v>209</v>
+      </c>
+      <c r="J39" t="s">
+        <v>209</v>
+      </c>
+      <c r="K39" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" t="s">
+        <v>209</v>
+      </c>
+      <c r="M39" t="s">
+        <v>209</v>
+      </c>
+      <c r="N39" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3416,6 +3704,30 @@
       <c r="F44" t="s">
         <v>209</v>
       </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" t="s">
+        <v>209</v>
+      </c>
+      <c r="J44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" t="s">
+        <v>209</v>
+      </c>
+      <c r="M44" t="s">
+        <v>209</v>
+      </c>
+      <c r="N44" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
@@ -3524,6 +3836,30 @@
       <c r="F47" t="s">
         <v>209</v>
       </c>
+      <c r="G47" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" t="s">
+        <v>209</v>
+      </c>
+      <c r="I47" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" t="s">
+        <v>209</v>
+      </c>
+      <c r="K47" t="s">
+        <v>209</v>
+      </c>
+      <c r="L47" t="s">
+        <v>209</v>
+      </c>
+      <c r="M47" t="s">
+        <v>209</v>
+      </c>
+      <c r="N47" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3720,6 +4056,30 @@
       <c r="F52" t="s">
         <v>209</v>
       </c>
+      <c r="G52" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I52" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" t="s">
+        <v>209</v>
+      </c>
+      <c r="K52" t="s">
+        <v>209</v>
+      </c>
+      <c r="L52" t="s">
+        <v>209</v>
+      </c>
+      <c r="M52" t="s">
+        <v>209</v>
+      </c>
+      <c r="N52" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3916,6 +4276,30 @@
       <c r="F57" t="s">
         <v>209</v>
       </c>
+      <c r="G57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" t="s">
+        <v>209</v>
+      </c>
+      <c r="I57" t="s">
+        <v>209</v>
+      </c>
+      <c r="J57" t="s">
+        <v>209</v>
+      </c>
+      <c r="K57" t="s">
+        <v>209</v>
+      </c>
+      <c r="L57" t="s">
+        <v>209</v>
+      </c>
+      <c r="M57" t="s">
+        <v>209</v>
+      </c>
+      <c r="N57" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
@@ -3936,6 +4320,30 @@
       <c r="F58" t="s">
         <v>209</v>
       </c>
+      <c r="G58" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" t="s">
+        <v>209</v>
+      </c>
+      <c r="I58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J58" t="s">
+        <v>209</v>
+      </c>
+      <c r="K58" t="s">
+        <v>209</v>
+      </c>
+      <c r="L58" t="s">
+        <v>209</v>
+      </c>
+      <c r="M58" t="s">
+        <v>209</v>
+      </c>
+      <c r="N58" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -4088,6 +4496,30 @@
       <c r="F62" t="s">
         <v>209</v>
       </c>
+      <c r="G62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" t="s">
+        <v>209</v>
+      </c>
+      <c r="I62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J62" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" t="s">
+        <v>209</v>
+      </c>
+      <c r="L62" t="s">
+        <v>209</v>
+      </c>
+      <c r="M62" t="s">
+        <v>209</v>
+      </c>
+      <c r="N62" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4372,6 +4804,30 @@
       <c r="F69" t="s">
         <v>209</v>
       </c>
+      <c r="G69" t="s">
+        <v>209</v>
+      </c>
+      <c r="H69" t="s">
+        <v>209</v>
+      </c>
+      <c r="I69" t="s">
+        <v>209</v>
+      </c>
+      <c r="J69" t="s">
+        <v>209</v>
+      </c>
+      <c r="K69" t="s">
+        <v>209</v>
+      </c>
+      <c r="L69" t="s">
+        <v>209</v>
+      </c>
+      <c r="M69" t="s">
+        <v>209</v>
+      </c>
+      <c r="N69" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4392,6 +4848,30 @@
       <c r="F70" t="s">
         <v>209</v>
       </c>
+      <c r="G70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" t="s">
+        <v>209</v>
+      </c>
+      <c r="I70" t="s">
+        <v>209</v>
+      </c>
+      <c r="J70" t="s">
+        <v>209</v>
+      </c>
+      <c r="K70" t="s">
+        <v>209</v>
+      </c>
+      <c r="L70" t="s">
+        <v>209</v>
+      </c>
+      <c r="M70" t="s">
+        <v>209</v>
+      </c>
+      <c r="N70" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
@@ -4632,6 +5112,30 @@
       <c r="F76" t="s">
         <v>209</v>
       </c>
+      <c r="G76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" t="s">
+        <v>209</v>
+      </c>
+      <c r="J76" t="s">
+        <v>209</v>
+      </c>
+      <c r="K76" t="s">
+        <v>209</v>
+      </c>
+      <c r="L76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M76" t="s">
+        <v>209</v>
+      </c>
+      <c r="N76" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4828,6 +5332,30 @@
       <c r="F81" t="s">
         <v>209</v>
       </c>
+      <c r="G81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" t="s">
+        <v>209</v>
+      </c>
+      <c r="J81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K81" t="s">
+        <v>209</v>
+      </c>
+      <c r="L81" t="s">
+        <v>209</v>
+      </c>
+      <c r="M81" t="s">
+        <v>209</v>
+      </c>
+      <c r="N81" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -5024,6 +5552,30 @@
       <c r="F86" t="s">
         <v>209</v>
       </c>
+      <c r="G86" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86" t="s">
+        <v>209</v>
+      </c>
+      <c r="I86" t="s">
+        <v>209</v>
+      </c>
+      <c r="J86" t="s">
+        <v>209</v>
+      </c>
+      <c r="K86" t="s">
+        <v>209</v>
+      </c>
+      <c r="L86" t="s">
+        <v>209</v>
+      </c>
+      <c r="M86" t="s">
+        <v>209</v>
+      </c>
+      <c r="N86" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -5132,6 +5684,30 @@
       <c r="F89" t="s">
         <v>209</v>
       </c>
+      <c r="G89" t="s">
+        <v>209</v>
+      </c>
+      <c r="H89" t="s">
+        <v>209</v>
+      </c>
+      <c r="I89" t="s">
+        <v>209</v>
+      </c>
+      <c r="J89" t="s">
+        <v>209</v>
+      </c>
+      <c r="K89" t="s">
+        <v>209</v>
+      </c>
+      <c r="L89" t="s">
+        <v>209</v>
+      </c>
+      <c r="M89" t="s">
+        <v>209</v>
+      </c>
+      <c r="N89" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5240,6 +5816,30 @@
       <c r="F92" t="s">
         <v>209</v>
       </c>
+      <c r="G92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H92" t="s">
+        <v>209</v>
+      </c>
+      <c r="I92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J92" t="s">
+        <v>209</v>
+      </c>
+      <c r="K92" t="s">
+        <v>209</v>
+      </c>
+      <c r="L92" t="s">
+        <v>209</v>
+      </c>
+      <c r="M92" t="s">
+        <v>209</v>
+      </c>
+      <c r="N92" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5260,6 +5860,30 @@
       <c r="F93" t="s">
         <v>209</v>
       </c>
+      <c r="G93" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93" t="s">
+        <v>209</v>
+      </c>
+      <c r="I93" t="s">
+        <v>209</v>
+      </c>
+      <c r="J93" t="s">
+        <v>209</v>
+      </c>
+      <c r="K93" t="s">
+        <v>209</v>
+      </c>
+      <c r="L93" t="s">
+        <v>209</v>
+      </c>
+      <c r="M93" t="s">
+        <v>209</v>
+      </c>
+      <c r="N93" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5280,6 +5904,30 @@
       <c r="F94" t="s">
         <v>209</v>
       </c>
+      <c r="G94" t="s">
+        <v>209</v>
+      </c>
+      <c r="H94" t="s">
+        <v>209</v>
+      </c>
+      <c r="I94" t="s">
+        <v>209</v>
+      </c>
+      <c r="J94" t="s">
+        <v>209</v>
+      </c>
+      <c r="K94" t="s">
+        <v>209</v>
+      </c>
+      <c r="L94" t="s">
+        <v>209</v>
+      </c>
+      <c r="M94" t="s">
+        <v>209</v>
+      </c>
+      <c r="N94" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5432,6 +6080,30 @@
       <c r="F98" t="s">
         <v>209</v>
       </c>
+      <c r="G98" t="s">
+        <v>209</v>
+      </c>
+      <c r="H98" t="s">
+        <v>209</v>
+      </c>
+      <c r="I98" t="s">
+        <v>209</v>
+      </c>
+      <c r="J98" t="s">
+        <v>209</v>
+      </c>
+      <c r="K98" t="s">
+        <v>209</v>
+      </c>
+      <c r="L98" t="s">
+        <v>209</v>
+      </c>
+      <c r="M98" t="s">
+        <v>209</v>
+      </c>
+      <c r="N98" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5540,6 +6212,30 @@
       <c r="F101" t="s">
         <v>209</v>
       </c>
+      <c r="G101" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" t="s">
+        <v>209</v>
+      </c>
+      <c r="I101" t="s">
+        <v>209</v>
+      </c>
+      <c r="J101" t="s">
+        <v>209</v>
+      </c>
+      <c r="K101" t="s">
+        <v>209</v>
+      </c>
+      <c r="L101" t="s">
+        <v>209</v>
+      </c>
+      <c r="M101" t="s">
+        <v>209</v>
+      </c>
+      <c r="N101" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5560,6 +6256,30 @@
       <c r="F102" t="s">
         <v>209</v>
       </c>
+      <c r="G102" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" t="s">
+        <v>209</v>
+      </c>
+      <c r="I102" t="s">
+        <v>209</v>
+      </c>
+      <c r="J102" t="s">
+        <v>209</v>
+      </c>
+      <c r="K102" t="s">
+        <v>209</v>
+      </c>
+      <c r="L102" t="s">
+        <v>209</v>
+      </c>
+      <c r="M102" t="s">
+        <v>209</v>
+      </c>
+      <c r="N102" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
@@ -5712,6 +6432,30 @@
       <c r="F106" t="s">
         <v>209</v>
       </c>
+      <c r="G106" t="s">
+        <v>209</v>
+      </c>
+      <c r="H106" t="s">
+        <v>209</v>
+      </c>
+      <c r="I106" t="s">
+        <v>209</v>
+      </c>
+      <c r="J106" t="s">
+        <v>209</v>
+      </c>
+      <c r="K106" t="s">
+        <v>209</v>
+      </c>
+      <c r="L106" t="s">
+        <v>209</v>
+      </c>
+      <c r="M106" t="s">
+        <v>209</v>
+      </c>
+      <c r="N106" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5908,6 +6652,30 @@
       <c r="F111" t="s">
         <v>209</v>
       </c>
+      <c r="G111" t="s">
+        <v>209</v>
+      </c>
+      <c r="H111" t="s">
+        <v>209</v>
+      </c>
+      <c r="I111" t="s">
+        <v>209</v>
+      </c>
+      <c r="J111" t="s">
+        <v>209</v>
+      </c>
+      <c r="K111" t="s">
+        <v>209</v>
+      </c>
+      <c r="L111" t="s">
+        <v>209</v>
+      </c>
+      <c r="M111" t="s">
+        <v>209</v>
+      </c>
+      <c r="N111" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -6016,6 +6784,30 @@
       <c r="F114" t="s">
         <v>209</v>
       </c>
+      <c r="G114" t="s">
+        <v>209</v>
+      </c>
+      <c r="H114" t="s">
+        <v>209</v>
+      </c>
+      <c r="I114" t="s">
+        <v>209</v>
+      </c>
+      <c r="J114" t="s">
+        <v>209</v>
+      </c>
+      <c r="K114" t="s">
+        <v>209</v>
+      </c>
+      <c r="L114" t="s">
+        <v>209</v>
+      </c>
+      <c r="M114" t="s">
+        <v>209</v>
+      </c>
+      <c r="N114" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -6080,6 +6872,30 @@
       <c r="F116" t="s">
         <v>209</v>
       </c>
+      <c r="G116" t="s">
+        <v>209</v>
+      </c>
+      <c r="H116" t="s">
+        <v>209</v>
+      </c>
+      <c r="I116" t="s">
+        <v>209</v>
+      </c>
+      <c r="J116" t="s">
+        <v>209</v>
+      </c>
+      <c r="K116" t="s">
+        <v>209</v>
+      </c>
+      <c r="L116" t="s">
+        <v>209</v>
+      </c>
+      <c r="M116" t="s">
+        <v>209</v>
+      </c>
+      <c r="N116" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6144,6 +6960,30 @@
       <c r="F118" t="s">
         <v>209</v>
       </c>
+      <c r="G118" t="s">
+        <v>209</v>
+      </c>
+      <c r="H118" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" t="s">
+        <v>209</v>
+      </c>
+      <c r="J118" t="s">
+        <v>209</v>
+      </c>
+      <c r="K118" t="s">
+        <v>209</v>
+      </c>
+      <c r="L118" t="s">
+        <v>209</v>
+      </c>
+      <c r="M118" t="s">
+        <v>209</v>
+      </c>
+      <c r="N118" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6296,6 +7136,30 @@
       <c r="F122" t="s">
         <v>209</v>
       </c>
+      <c r="G122" t="s">
+        <v>209</v>
+      </c>
+      <c r="H122" t="s">
+        <v>209</v>
+      </c>
+      <c r="I122" t="s">
+        <v>209</v>
+      </c>
+      <c r="J122" t="s">
+        <v>209</v>
+      </c>
+      <c r="K122" t="s">
+        <v>209</v>
+      </c>
+      <c r="L122" t="s">
+        <v>209</v>
+      </c>
+      <c r="M122" t="s">
+        <v>209</v>
+      </c>
+      <c r="N122" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6360,6 +7224,30 @@
       <c r="F124" t="s">
         <v>209</v>
       </c>
+      <c r="G124" t="s">
+        <v>209</v>
+      </c>
+      <c r="H124" t="s">
+        <v>209</v>
+      </c>
+      <c r="I124" t="s">
+        <v>209</v>
+      </c>
+      <c r="J124" t="s">
+        <v>209</v>
+      </c>
+      <c r="K124" t="s">
+        <v>209</v>
+      </c>
+      <c r="L124" t="s">
+        <v>209</v>
+      </c>
+      <c r="M124" t="s">
+        <v>209</v>
+      </c>
+      <c r="N124" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6468,6 +7356,30 @@
       <c r="F127" t="s">
         <v>209</v>
       </c>
+      <c r="G127" t="s">
+        <v>209</v>
+      </c>
+      <c r="H127" t="s">
+        <v>209</v>
+      </c>
+      <c r="I127" t="s">
+        <v>209</v>
+      </c>
+      <c r="J127" t="s">
+        <v>209</v>
+      </c>
+      <c r="K127" t="s">
+        <v>209</v>
+      </c>
+      <c r="L127" t="s">
+        <v>209</v>
+      </c>
+      <c r="M127" t="s">
+        <v>209</v>
+      </c>
+      <c r="N127" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6488,6 +7400,30 @@
       <c r="F128" t="s">
         <v>209</v>
       </c>
+      <c r="G128" t="s">
+        <v>209</v>
+      </c>
+      <c r="H128" t="s">
+        <v>209</v>
+      </c>
+      <c r="I128" t="s">
+        <v>209</v>
+      </c>
+      <c r="J128" t="s">
+        <v>209</v>
+      </c>
+      <c r="K128" t="s">
+        <v>209</v>
+      </c>
+      <c r="L128" t="s">
+        <v>209</v>
+      </c>
+      <c r="M128" t="s">
+        <v>209</v>
+      </c>
+      <c r="N128" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6640,6 +7576,30 @@
       <c r="F132" t="s">
         <v>209</v>
       </c>
+      <c r="G132" t="s">
+        <v>209</v>
+      </c>
+      <c r="H132" t="s">
+        <v>209</v>
+      </c>
+      <c r="I132" t="s">
+        <v>209</v>
+      </c>
+      <c r="J132" t="s">
+        <v>209</v>
+      </c>
+      <c r="K132" t="s">
+        <v>209</v>
+      </c>
+      <c r="L132" t="s">
+        <v>209</v>
+      </c>
+      <c r="M132" t="s">
+        <v>209</v>
+      </c>
+      <c r="N132" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6748,6 +7708,30 @@
       <c r="F135" t="s">
         <v>209</v>
       </c>
+      <c r="G135" t="s">
+        <v>209</v>
+      </c>
+      <c r="H135" t="s">
+        <v>209</v>
+      </c>
+      <c r="I135" t="s">
+        <v>209</v>
+      </c>
+      <c r="J135" t="s">
+        <v>209</v>
+      </c>
+      <c r="K135" t="s">
+        <v>209</v>
+      </c>
+      <c r="L135" t="s">
+        <v>209</v>
+      </c>
+      <c r="M135" t="s">
+        <v>209</v>
+      </c>
+      <c r="N135" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6856,6 +7840,30 @@
       <c r="F138" t="s">
         <v>209</v>
       </c>
+      <c r="G138" t="s">
+        <v>209</v>
+      </c>
+      <c r="H138" t="s">
+        <v>209</v>
+      </c>
+      <c r="I138" t="s">
+        <v>209</v>
+      </c>
+      <c r="J138" t="s">
+        <v>209</v>
+      </c>
+      <c r="K138" t="s">
+        <v>209</v>
+      </c>
+      <c r="L138" t="s">
+        <v>209</v>
+      </c>
+      <c r="M138" t="s">
+        <v>209</v>
+      </c>
+      <c r="N138" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6876,6 +7884,30 @@
       <c r="F139" t="s">
         <v>209</v>
       </c>
+      <c r="G139" t="s">
+        <v>209</v>
+      </c>
+      <c r="H139" t="s">
+        <v>209</v>
+      </c>
+      <c r="I139" t="s">
+        <v>209</v>
+      </c>
+      <c r="J139" t="s">
+        <v>209</v>
+      </c>
+      <c r="K139" t="s">
+        <v>209</v>
+      </c>
+      <c r="L139" t="s">
+        <v>209</v>
+      </c>
+      <c r="M139" t="s">
+        <v>209</v>
+      </c>
+      <c r="N139" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6940,6 +7972,30 @@
       <c r="F141" t="s">
         <v>209</v>
       </c>
+      <c r="G141" t="s">
+        <v>209</v>
+      </c>
+      <c r="H141" t="s">
+        <v>209</v>
+      </c>
+      <c r="I141" t="s">
+        <v>209</v>
+      </c>
+      <c r="J141" t="s">
+        <v>209</v>
+      </c>
+      <c r="K141" t="s">
+        <v>209</v>
+      </c>
+      <c r="L141" t="s">
+        <v>209</v>
+      </c>
+      <c r="M141" t="s">
+        <v>209</v>
+      </c>
+      <c r="N141" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -6960,6 +8016,30 @@
       <c r="F142" t="s">
         <v>209</v>
       </c>
+      <c r="G142" t="s">
+        <v>209</v>
+      </c>
+      <c r="H142" t="s">
+        <v>209</v>
+      </c>
+      <c r="I142" t="s">
+        <v>209</v>
+      </c>
+      <c r="J142" t="s">
+        <v>209</v>
+      </c>
+      <c r="K142" t="s">
+        <v>209</v>
+      </c>
+      <c r="L142" t="s">
+        <v>209</v>
+      </c>
+      <c r="M142" t="s">
+        <v>209</v>
+      </c>
+      <c r="N142" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -6980,6 +8060,30 @@
       <c r="F143" t="s">
         <v>209</v>
       </c>
+      <c r="G143" t="s">
+        <v>209</v>
+      </c>
+      <c r="H143" t="s">
+        <v>209</v>
+      </c>
+      <c r="I143" t="s">
+        <v>209</v>
+      </c>
+      <c r="J143" t="s">
+        <v>209</v>
+      </c>
+      <c r="K143" t="s">
+        <v>209</v>
+      </c>
+      <c r="L143" t="s">
+        <v>209</v>
+      </c>
+      <c r="M143" t="s">
+        <v>209</v>
+      </c>
+      <c r="N143" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
@@ -7176,6 +8280,30 @@
       <c r="F148" t="s">
         <v>209</v>
       </c>
+      <c r="G148" t="s">
+        <v>209</v>
+      </c>
+      <c r="H148" t="s">
+        <v>209</v>
+      </c>
+      <c r="I148" t="s">
+        <v>209</v>
+      </c>
+      <c r="J148" t="s">
+        <v>209</v>
+      </c>
+      <c r="K148" t="s">
+        <v>209</v>
+      </c>
+      <c r="L148" t="s">
+        <v>209</v>
+      </c>
+      <c r="M148" t="s">
+        <v>209</v>
+      </c>
+      <c r="N148" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
@@ -7284,6 +8412,30 @@
       <c r="F151" t="s">
         <v>209</v>
       </c>
+      <c r="G151" t="s">
+        <v>209</v>
+      </c>
+      <c r="H151" t="s">
+        <v>209</v>
+      </c>
+      <c r="I151" t="s">
+        <v>209</v>
+      </c>
+      <c r="J151" t="s">
+        <v>209</v>
+      </c>
+      <c r="K151" t="s">
+        <v>209</v>
+      </c>
+      <c r="L151" t="s">
+        <v>209</v>
+      </c>
+      <c r="M151" t="s">
+        <v>209</v>
+      </c>
+      <c r="N151" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7348,6 +8500,30 @@
       <c r="F153" t="s">
         <v>209</v>
       </c>
+      <c r="G153" t="s">
+        <v>209</v>
+      </c>
+      <c r="H153" t="s">
+        <v>209</v>
+      </c>
+      <c r="I153" t="s">
+        <v>209</v>
+      </c>
+      <c r="J153" t="s">
+        <v>209</v>
+      </c>
+      <c r="K153" t="s">
+        <v>209</v>
+      </c>
+      <c r="L153" t="s">
+        <v>209</v>
+      </c>
+      <c r="M153" t="s">
+        <v>209</v>
+      </c>
+      <c r="N153" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7412,6 +8588,30 @@
       <c r="F155" t="s">
         <v>209</v>
       </c>
+      <c r="G155" t="s">
+        <v>209</v>
+      </c>
+      <c r="H155" t="s">
+        <v>209</v>
+      </c>
+      <c r="I155" t="s">
+        <v>209</v>
+      </c>
+      <c r="J155" t="s">
+        <v>209</v>
+      </c>
+      <c r="K155" t="s">
+        <v>209</v>
+      </c>
+      <c r="L155" t="s">
+        <v>209</v>
+      </c>
+      <c r="M155" t="s">
+        <v>209</v>
+      </c>
+      <c r="N155" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7476,6 +8676,30 @@
       <c r="F157" t="s">
         <v>209</v>
       </c>
+      <c r="G157" t="s">
+        <v>209</v>
+      </c>
+      <c r="H157" t="s">
+        <v>209</v>
+      </c>
+      <c r="I157" t="s">
+        <v>209</v>
+      </c>
+      <c r="J157" t="s">
+        <v>209</v>
+      </c>
+      <c r="K157" t="s">
+        <v>209</v>
+      </c>
+      <c r="L157" t="s">
+        <v>209</v>
+      </c>
+      <c r="M157" t="s">
+        <v>209</v>
+      </c>
+      <c r="N157" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7540,6 +8764,30 @@
       <c r="F159" t="s">
         <v>209</v>
       </c>
+      <c r="G159" t="s">
+        <v>209</v>
+      </c>
+      <c r="H159" t="s">
+        <v>209</v>
+      </c>
+      <c r="I159" t="s">
+        <v>209</v>
+      </c>
+      <c r="J159" t="s">
+        <v>209</v>
+      </c>
+      <c r="K159" t="s">
+        <v>209</v>
+      </c>
+      <c r="L159" t="s">
+        <v>209</v>
+      </c>
+      <c r="M159" t="s">
+        <v>209</v>
+      </c>
+      <c r="N159" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7560,6 +8808,30 @@
       <c r="F160" t="s">
         <v>209</v>
       </c>
+      <c r="G160" t="s">
+        <v>209</v>
+      </c>
+      <c r="H160" t="s">
+        <v>209</v>
+      </c>
+      <c r="I160" t="s">
+        <v>209</v>
+      </c>
+      <c r="J160" t="s">
+        <v>209</v>
+      </c>
+      <c r="K160" t="s">
+        <v>209</v>
+      </c>
+      <c r="L160" t="s">
+        <v>209</v>
+      </c>
+      <c r="M160" t="s">
+        <v>209</v>
+      </c>
+      <c r="N160" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7580,6 +8852,30 @@
       <c r="F161" t="s">
         <v>209</v>
       </c>
+      <c r="G161" t="s">
+        <v>209</v>
+      </c>
+      <c r="H161" t="s">
+        <v>209</v>
+      </c>
+      <c r="I161" t="s">
+        <v>209</v>
+      </c>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+      <c r="K161" t="s">
+        <v>209</v>
+      </c>
+      <c r="L161" t="s">
+        <v>209</v>
+      </c>
+      <c r="M161" t="s">
+        <v>209</v>
+      </c>
+      <c r="N161" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7600,6 +8896,30 @@
       <c r="F162" t="s">
         <v>209</v>
       </c>
+      <c r="G162" t="s">
+        <v>209</v>
+      </c>
+      <c r="H162" t="s">
+        <v>209</v>
+      </c>
+      <c r="I162" t="s">
+        <v>209</v>
+      </c>
+      <c r="J162" t="s">
+        <v>209</v>
+      </c>
+      <c r="K162" t="s">
+        <v>209</v>
+      </c>
+      <c r="L162" t="s">
+        <v>209</v>
+      </c>
+      <c r="M162" t="s">
+        <v>209</v>
+      </c>
+      <c r="N162" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7884,6 +9204,30 @@
       <c r="F169" t="s">
         <v>209</v>
       </c>
+      <c r="G169" t="s">
+        <v>209</v>
+      </c>
+      <c r="H169" t="s">
+        <v>209</v>
+      </c>
+      <c r="I169" t="s">
+        <v>209</v>
+      </c>
+      <c r="J169" t="s">
+        <v>209</v>
+      </c>
+      <c r="K169" t="s">
+        <v>209</v>
+      </c>
+      <c r="L169" t="s">
+        <v>209</v>
+      </c>
+      <c r="M169" t="s">
+        <v>209</v>
+      </c>
+      <c r="N169" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -7904,6 +9248,30 @@
       <c r="F170" t="s">
         <v>209</v>
       </c>
+      <c r="G170" t="s">
+        <v>209</v>
+      </c>
+      <c r="H170" t="s">
+        <v>209</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+      <c r="J170" t="s">
+        <v>209</v>
+      </c>
+      <c r="K170" t="s">
+        <v>209</v>
+      </c>
+      <c r="L170" t="s">
+        <v>209</v>
+      </c>
+      <c r="M170" t="s">
+        <v>209</v>
+      </c>
+      <c r="N170" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -8144,6 +9512,30 @@
       <c r="F176" t="s">
         <v>209</v>
       </c>
+      <c r="G176" t="s">
+        <v>209</v>
+      </c>
+      <c r="H176" t="s">
+        <v>209</v>
+      </c>
+      <c r="I176" t="s">
+        <v>209</v>
+      </c>
+      <c r="J176" t="s">
+        <v>209</v>
+      </c>
+      <c r="K176" t="s">
+        <v>209</v>
+      </c>
+      <c r="L176" t="s">
+        <v>209</v>
+      </c>
+      <c r="M176" t="s">
+        <v>209</v>
+      </c>
+      <c r="N176" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
@@ -8296,6 +9688,30 @@
       <c r="F180" t="s">
         <v>209</v>
       </c>
+      <c r="G180" t="s">
+        <v>209</v>
+      </c>
+      <c r="H180" t="s">
+        <v>209</v>
+      </c>
+      <c r="I180" t="s">
+        <v>209</v>
+      </c>
+      <c r="J180" t="s">
+        <v>209</v>
+      </c>
+      <c r="K180" t="s">
+        <v>209</v>
+      </c>
+      <c r="L180" t="s">
+        <v>209</v>
+      </c>
+      <c r="M180" t="s">
+        <v>209</v>
+      </c>
+      <c r="N180" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8360,6 +9776,30 @@
       <c r="F182" t="s">
         <v>209</v>
       </c>
+      <c r="G182" t="s">
+        <v>209</v>
+      </c>
+      <c r="H182" t="s">
+        <v>209</v>
+      </c>
+      <c r="I182" t="s">
+        <v>209</v>
+      </c>
+      <c r="J182" t="s">
+        <v>209</v>
+      </c>
+      <c r="K182" t="s">
+        <v>209</v>
+      </c>
+      <c r="L182" t="s">
+        <v>209</v>
+      </c>
+      <c r="M182" t="s">
+        <v>209</v>
+      </c>
+      <c r="N182" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8380,6 +9820,30 @@
       <c r="F183" t="s">
         <v>209</v>
       </c>
+      <c r="G183" t="s">
+        <v>209</v>
+      </c>
+      <c r="H183" t="s">
+        <v>209</v>
+      </c>
+      <c r="I183" t="s">
+        <v>209</v>
+      </c>
+      <c r="J183" t="s">
+        <v>209</v>
+      </c>
+      <c r="K183" t="s">
+        <v>209</v>
+      </c>
+      <c r="L183" t="s">
+        <v>209</v>
+      </c>
+      <c r="M183" t="s">
+        <v>209</v>
+      </c>
+      <c r="N183" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8664,6 +10128,30 @@
       <c r="F190" t="s">
         <v>209</v>
       </c>
+      <c r="G190" t="s">
+        <v>209</v>
+      </c>
+      <c r="H190" t="s">
+        <v>209</v>
+      </c>
+      <c r="I190" t="s">
+        <v>209</v>
+      </c>
+      <c r="J190" t="s">
+        <v>209</v>
+      </c>
+      <c r="K190" t="s">
+        <v>209</v>
+      </c>
+      <c r="L190" t="s">
+        <v>209</v>
+      </c>
+      <c r="M190" t="s">
+        <v>209</v>
+      </c>
+      <c r="N190" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8684,6 +10172,30 @@
       <c r="F191" t="s">
         <v>209</v>
       </c>
+      <c r="G191" t="s">
+        <v>209</v>
+      </c>
+      <c r="H191" t="s">
+        <v>209</v>
+      </c>
+      <c r="I191" t="s">
+        <v>209</v>
+      </c>
+      <c r="J191" t="s">
+        <v>209</v>
+      </c>
+      <c r="K191" t="s">
+        <v>209</v>
+      </c>
+      <c r="L191" t="s">
+        <v>209</v>
+      </c>
+      <c r="M191" t="s">
+        <v>209</v>
+      </c>
+      <c r="N191" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>209</v>
+      </c>
+      <c r="G192" t="s">
+        <v>209</v>
+      </c>
+      <c r="H192" t="s">
+        <v>209</v>
+      </c>
+      <c r="I192" t="s">
+        <v>209</v>
+      </c>
+      <c r="J192" t="s">
+        <v>209</v>
+      </c>
+      <c r="K192" t="s">
+        <v>209</v>
+      </c>
+      <c r="L192" t="s">
+        <v>209</v>
+      </c>
+      <c r="M192" t="s">
+        <v>209</v>
+      </c>
+      <c r="N192" t="s">
         <v>209</v>
       </c>
     </row>

--- a/sequences/15_retrieval_2.xlsx
+++ b/sequences/15_retrieval_2.xlsx
@@ -55,28 +55,535 @@
     <t>type4</t>
   </si>
   <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>posten</t>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>schauen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>kichern</t>
   </si>
   <si>
     <t>kümmern</t>
   </si>
   <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>heulen</t>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>hauen</t>
   </si>
   <si>
     <t>altern</t>
@@ -85,550 +592,43 @@
     <t>wehen</t>
   </si>
   <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>lernen</t>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>parken</t>
   </si>
   <si>
     <t>backen</t>
   </si>
   <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>atmen</t>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>rauchen</t>
   </si>
   <si>
     <t>bauen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>segeln</t>
   </si>
   <si>
     <t>face/face011.jpg</t>
